--- a/02.팀원관리/01.인사고과평가/2023 상반기 인사고과평가_개발사업부_개발2팀_한나결.xlsx
+++ b/02.팀원관리/01.인사고과평가/2023 상반기 인사고과평가_개발사업부_개발2팀_한나결.xlsx
@@ -568,7 +568,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2023.01.01 ~ 2023.06.30</t>
+    <t>2023.01.02 ~ 2023.06.30</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2805,89 +2805,368 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2901,314 +3180,35 @@
     <xf numFmtId="2" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="325">
@@ -3844,7 +3844,7 @@
   <dimension ref="A1:S89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:G13"/>
+      <selection activeCell="G30" sqref="G30:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3866,55 +3866,55 @@
   <sheetData>
     <row r="1" spans="1:16" ht="8.1" customHeight="1"/>
     <row r="2" spans="1:16" ht="15.9" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
     </row>
     <row r="3" spans="1:16" ht="8.1" customHeight="1"/>
     <row r="4" spans="1:16" ht="18.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="90" t="s">
+      <c r="F4" s="215"/>
+      <c r="G4" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="92" t="s">
+      <c r="H4" s="100"/>
+      <c r="I4" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="93"/>
+      <c r="J4" s="217"/>
       <c r="K4" s="4" t="s">
         <v>117</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="90" t="s">
+      <c r="M4" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="N4" s="90"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:16" s="7" customFormat="1" ht="4.5" customHeight="1">
       <c r="A5" s="5"/>
@@ -3930,74 +3930,74 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="218" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="92" t="s">
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="93"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="219"/>
+      <c r="I6" s="219"/>
+      <c r="J6" s="217"/>
     </row>
     <row r="7" spans="1:16" ht="18" customHeight="1">
-      <c r="A7" s="91"/>
-      <c r="B7" s="96" t="s">
+      <c r="A7" s="215"/>
+      <c r="B7" s="220" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="96" t="s">
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="98"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="222"/>
     </row>
     <row r="8" spans="1:16" ht="8.1" customHeight="1"/>
     <row r="9" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
+      <c r="B9" s="203"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="203"/>
+      <c r="G9" s="203"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
+      <c r="L9" s="203"/>
+      <c r="M9" s="203"/>
+      <c r="N9" s="203"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="100" t="s">
+      <c r="B10" s="140"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="100" t="s">
+      <c r="G10" s="140"/>
+      <c r="H10" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="102"/>
+      <c r="I10" s="141"/>
       <c r="J10" s="8" t="s">
         <v>13</v>
       </c>
@@ -4007,18 +4007,18 @@
       <c r="L10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="103" t="s">
+      <c r="M10" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="104"/>
+      <c r="N10" s="205"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
       <c r="E11" s="11">
         <v>0.3</v>
       </c>
@@ -4031,26 +4031,26 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="13"/>
-      <c r="P11" s="107" t="s">
+      <c r="P11" s="206" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112">
+      <c r="B12" s="184"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="207">
         <v>30</v>
       </c>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112">
+      <c r="G12" s="207"/>
+      <c r="H12" s="207">
         <v>6</v>
       </c>
-      <c r="I12" s="112"/>
+      <c r="I12" s="207"/>
       <c r="J12" s="14">
         <f>L34</f>
         <v>6</v>
@@ -4059,28 +4059,28 @@
         <f>$J$12*$F$12/$H$12</f>
         <v>30</v>
       </c>
-      <c r="L12" s="114">
+      <c r="L12" s="195">
         <f>IF(SUM(K12:K13)&gt;30, 30, SUM(K12:K13))</f>
         <v>30</v>
       </c>
-      <c r="M12" s="116" t="s">
+      <c r="M12" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="117"/>
-      <c r="P12" s="108"/>
+      <c r="N12" s="210"/>
+      <c r="P12" s="94"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
+      <c r="B13" s="190"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="208"/>
+      <c r="G13" s="208"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="208"/>
       <c r="J13" s="16">
         <f>N45</f>
         <v>0</v>
@@ -4089,18 +4089,18 @@
         <f>$J$13*$F$12/$H$12</f>
         <v>0</v>
       </c>
-      <c r="L13" s="115"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="119"/>
-      <c r="P13" s="108"/>
+      <c r="L13" s="196"/>
+      <c r="M13" s="211"/>
+      <c r="N13" s="212"/>
+      <c r="P13" s="94"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
       <c r="E14" s="11">
         <v>0.5</v>
       </c>
@@ -4115,21 +4115,21 @@
       <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="123">
+      <c r="B15" s="184"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="186">
         <v>20</v>
       </c>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123">
+      <c r="G15" s="186"/>
+      <c r="H15" s="186">
         <v>20</v>
       </c>
-      <c r="I15" s="123"/>
+      <c r="I15" s="186"/>
       <c r="J15" s="18">
         <f>M34</f>
         <v>0</v>
@@ -4138,29 +4138,29 @@
         <f>J15/H15*F15</f>
         <v>0</v>
       </c>
-      <c r="L15" s="114">
+      <c r="L15" s="195">
         <f>SUM(K15:K16)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="124"/>
-      <c r="N15" s="125"/>
+      <c r="M15" s="199"/>
+      <c r="N15" s="200"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1">
-      <c r="A16" s="120" t="s">
+      <c r="A16" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="128">
+      <c r="B16" s="190"/>
+      <c r="C16" s="190"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="192">
         <v>30</v>
       </c>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128">
+      <c r="G16" s="192"/>
+      <c r="H16" s="192">
         <v>30</v>
       </c>
-      <c r="I16" s="128"/>
+      <c r="I16" s="192"/>
       <c r="J16" s="19">
         <f>N34</f>
         <v>0</v>
@@ -4169,17 +4169,17 @@
         <f>J16/H16*F16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="115"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="127"/>
+      <c r="L16" s="196"/>
+      <c r="M16" s="201"/>
+      <c r="N16" s="202"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
+      <c r="B17" s="182"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
       <c r="E17" s="11">
         <v>0.2</v>
       </c>
@@ -4194,17 +4194,17 @@
       <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="184"/>
+      <c r="D18" s="184"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
       <c r="J18" s="21">
         <f>B57+N57</f>
         <v>0</v>
@@ -4213,29 +4213,29 @@
         <f>J18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="114">
+      <c r="L18" s="195">
         <f>K18+K19</f>
         <v>0</v>
       </c>
-      <c r="M18" s="129"/>
-      <c r="N18" s="130"/>
+      <c r="M18" s="187"/>
+      <c r="N18" s="188"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="190"/>
       <c r="E19" s="22"/>
-      <c r="F19" s="128">
+      <c r="F19" s="192">
         <v>20</v>
       </c>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128">
+      <c r="G19" s="192"/>
+      <c r="H19" s="192">
         <v>45</v>
       </c>
-      <c r="I19" s="128"/>
+      <c r="I19" s="192"/>
       <c r="J19" s="23">
         <f>M89</f>
         <v>0</v>
@@ -4244,18 +4244,18 @@
         <f>J19*F19/H19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="115"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="132"/>
+      <c r="L19" s="196"/>
+      <c r="M19" s="197"/>
+      <c r="N19" s="198"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -4267,17 +4267,17 @@
       <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1">
-      <c r="A21" s="109" t="s">
+      <c r="A21" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
+      <c r="B21" s="184"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
       <c r="J21" s="24">
         <f>K12+K13-L12</f>
         <v>0</v>
@@ -4290,25 +4290,25 @@
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="129"/>
-      <c r="N21" s="130"/>
+      <c r="M21" s="187"/>
+      <c r="N21" s="188"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="189" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="128">
+      <c r="B22" s="190"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="190"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="192">
         <v>0</v>
       </c>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128">
+      <c r="G22" s="192"/>
+      <c r="H22" s="192">
         <v>0</v>
       </c>
-      <c r="I22" s="128"/>
+      <c r="I22" s="192"/>
       <c r="J22" s="26">
         <v>0</v>
       </c>
@@ -4320,32 +4320,32 @@
         <f>K22</f>
         <v>0</v>
       </c>
-      <c r="M22" s="133"/>
-      <c r="N22" s="134"/>
+      <c r="M22" s="193"/>
+      <c r="N22" s="194"/>
       <c r="P22" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="140"/>
       <c r="L23" s="29">
         <f>IF(SUM(L12,L15,L18,L19,L21,L22) &gt; 100, 100, SUM(L12,L15,L18,L19,L21,L22))</f>
         <v>30</v>
       </c>
-      <c r="M23" s="100"/>
-      <c r="N23" s="102"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="141"/>
     </row>
     <row r="24" spans="1:17" ht="8.1" customHeight="1"/>
     <row r="25" spans="1:17" ht="16.5" customHeight="1">
@@ -4354,60 +4354,60 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A26" s="135" t="s">
+      <c r="A26" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="135"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="176"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="176"/>
+      <c r="N26" s="176"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="136" t="s">
+      <c r="B27" s="140"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136" t="s">
+      <c r="L27" s="177"/>
+      <c r="M27" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="N27" s="136"/>
+      <c r="N27" s="177"/>
     </row>
     <row r="28" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="100" t="s">
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="102"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="141"/>
       <c r="K28" s="8" t="s">
         <v>40</v>
       </c>
@@ -4422,20 +4422,20 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1">
-      <c r="A29" s="137" t="s">
+      <c r="A29" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="140" t="s">
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="178" t="s">
         <v>120</v>
       </c>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="142"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="180"/>
       <c r="K29" s="32">
         <v>6</v>
       </c>
@@ -4448,16 +4448,16 @@
       <c r="Q29" s="36"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1">
-      <c r="A30" s="137"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="145"/>
+      <c r="A30" s="151"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="156"/>
       <c r="K30" s="37"/>
       <c r="L30" s="38"/>
       <c r="M30" s="39"/>
@@ -4466,16 +4466,16 @@
       <c r="Q30" s="36"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1">
-      <c r="A31" s="137"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="145"/>
+      <c r="A31" s="151"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="156"/>
       <c r="K31" s="37"/>
       <c r="L31" s="38"/>
       <c r="M31" s="39"/>
@@ -4484,16 +4484,16 @@
       <c r="Q31" s="36"/>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="137"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="145"/>
+      <c r="A32" s="151"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="156"/>
       <c r="K32" s="37"/>
       <c r="L32" s="38"/>
       <c r="M32" s="39"/>
@@ -4502,16 +4502,16 @@
       <c r="Q32" s="36"/>
     </row>
     <row r="33" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="146"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="151"/>
+      <c r="A33" s="170"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="175"/>
       <c r="K33" s="41"/>
       <c r="L33" s="42"/>
       <c r="M33" s="43"/>
@@ -4520,18 +4520,18 @@
       <c r="Q33" s="36"/>
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A34" s="100" t="s">
+      <c r="A34" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="102"/>
+      <c r="B34" s="140"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="141"/>
       <c r="K34" s="44">
         <f>SUM(K29:K33)</f>
         <v>6</v>
@@ -4550,60 +4550,60 @@
       </c>
     </row>
     <row r="35" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="152"/>
-      <c r="L35" s="152"/>
-      <c r="M35" s="152"/>
-      <c r="N35" s="152"/>
+      <c r="B35" s="160"/>
+      <c r="C35" s="160"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="160"/>
+      <c r="L35" s="160"/>
+      <c r="M35" s="160"/>
+      <c r="N35" s="160"/>
     </row>
     <row r="36" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="100" t="s">
+      <c r="B36" s="140"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="140"/>
+      <c r="L36" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="M36" s="101"/>
-      <c r="N36" s="102"/>
+      <c r="M36" s="140"/>
+      <c r="N36" s="141"/>
     </row>
     <row r="37" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A37" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="153" t="s">
+      <c r="B37" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="154"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="155"/>
-      <c r="H37" s="156" t="s">
+      <c r="C37" s="162"/>
+      <c r="D37" s="162"/>
+      <c r="E37" s="162"/>
+      <c r="F37" s="162"/>
+      <c r="G37" s="163"/>
+      <c r="H37" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="157"/>
-      <c r="J37" s="158"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="90"/>
       <c r="K37" s="47" t="s">
         <v>48</v>
       </c>
@@ -4621,15 +4621,15 @@
       </c>
     </row>
     <row r="38" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B38" s="159"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="162"/>
-      <c r="I38" s="163"/>
-      <c r="J38" s="164"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="168"/>
+      <c r="J38" s="169"/>
       <c r="K38" s="49"/>
       <c r="L38" s="50"/>
       <c r="M38" s="51"/>
@@ -4640,15 +4640,15 @@
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="53"/>
-      <c r="B39" s="137"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="138"/>
-      <c r="F39" s="138"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="145"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="156"/>
       <c r="K39" s="54"/>
       <c r="L39" s="55"/>
       <c r="M39" s="56"/>
@@ -4659,15 +4659,15 @@
     </row>
     <row r="40" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="53"/>
-      <c r="B40" s="137"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="144"/>
-      <c r="J40" s="145"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="156"/>
       <c r="K40" s="54"/>
       <c r="L40" s="55"/>
       <c r="M40" s="56"/>
@@ -4678,15 +4678,15 @@
     </row>
     <row r="41" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="53"/>
-      <c r="B41" s="137"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="145"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="156"/>
       <c r="K41" s="54"/>
       <c r="L41" s="55"/>
       <c r="M41" s="56"/>
@@ -4697,15 +4697,15 @@
     </row>
     <row r="42" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="53"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="138"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="144"/>
-      <c r="J42" s="145"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="156"/>
       <c r="K42" s="54"/>
       <c r="L42" s="55"/>
       <c r="M42" s="56"/>
@@ -4716,15 +4716,15 @@
     </row>
     <row r="43" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="53"/>
-      <c r="B43" s="137"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="145"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="156"/>
       <c r="K43" s="54"/>
       <c r="L43" s="55"/>
       <c r="M43" s="56"/>
@@ -4735,15 +4735,15 @@
     </row>
     <row r="44" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="57"/>
-      <c r="B44" s="137"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="138"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="166"/>
-      <c r="J44" s="167"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="157"/>
+      <c r="I44" s="158"/>
+      <c r="J44" s="159"/>
       <c r="K44" s="58"/>
       <c r="L44" s="55"/>
       <c r="M44" s="56"/>
@@ -4753,21 +4753,21 @@
       </c>
     </row>
     <row r="45" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="100" t="s">
+      <c r="A45" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="102"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="140"/>
+      <c r="J45" s="140"/>
+      <c r="K45" s="140"/>
+      <c r="L45" s="140"/>
+      <c r="M45" s="141"/>
       <c r="N45" s="29">
         <f>SUM(H38,H39,H40,H41,H43,H44,N38,N39,N40,N41,N43,N44)</f>
         <v>0</v>
@@ -4780,52 +4780,52 @@
       </c>
     </row>
     <row r="48" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A48" s="168" t="s">
+      <c r="A48" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="168"/>
-      <c r="C48" s="168"/>
-      <c r="D48" s="168"/>
-      <c r="E48" s="168"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="168"/>
-      <c r="I48" s="168"/>
-      <c r="J48" s="168"/>
-      <c r="K48" s="168"/>
-      <c r="L48" s="168"/>
-      <c r="M48" s="168"/>
-      <c r="N48" s="168"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="118"/>
+      <c r="K48" s="118"/>
+      <c r="L48" s="118"/>
+      <c r="M48" s="118"/>
+      <c r="N48" s="118"/>
     </row>
     <row r="49" spans="1:19" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A49" s="169" t="s">
+      <c r="A49" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="170"/>
-      <c r="C49" s="171" t="s">
+      <c r="B49" s="143"/>
+      <c r="C49" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="171" t="s">
+      <c r="D49" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="171" t="s">
+      <c r="E49" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="171" t="s">
+      <c r="F49" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="173" t="s">
+      <c r="G49" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="175" t="s">
+      <c r="H49" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="I49" s="176"/>
-      <c r="J49" s="176"/>
-      <c r="K49" s="176"/>
-      <c r="L49" s="176"/>
-      <c r="M49" s="176"/>
-      <c r="N49" s="177"/>
+      <c r="I49" s="148"/>
+      <c r="J49" s="148"/>
+      <c r="K49" s="148"/>
+      <c r="L49" s="148"/>
+      <c r="M49" s="148"/>
+      <c r="N49" s="149"/>
     </row>
     <row r="50" spans="1:19" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A50" s="61" t="s">
@@ -4834,23 +4834,23 @@
       <c r="B50" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="172"/>
-      <c r="D50" s="172"/>
-      <c r="E50" s="172"/>
-      <c r="F50" s="172"/>
-      <c r="G50" s="174"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="146"/>
       <c r="H50" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="I50" s="156" t="s">
+      <c r="I50" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="J50" s="157"/>
-      <c r="K50" s="158"/>
-      <c r="L50" s="178" t="s">
+      <c r="J50" s="89"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="M50" s="178"/>
+      <c r="M50" s="150"/>
       <c r="N50" s="64" t="s">
         <v>73</v>
       </c>
@@ -4864,18 +4864,18 @@
       <c r="D51" s="67"/>
       <c r="E51" s="67"/>
       <c r="F51" s="67"/>
-      <c r="G51" s="179"/>
+      <c r="G51" s="126"/>
       <c r="H51" s="68"/>
-      <c r="I51" s="182"/>
-      <c r="J51" s="182"/>
-      <c r="K51" s="182"/>
-      <c r="L51" s="183"/>
-      <c r="M51" s="184"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="129"/>
+      <c r="L51" s="130"/>
+      <c r="M51" s="131"/>
       <c r="N51" s="69"/>
-      <c r="P51" s="185" t="s">
+      <c r="P51" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="Q51" s="108"/>
+      <c r="Q51" s="94"/>
     </row>
     <row r="52" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="65" t="s">
@@ -4886,16 +4886,16 @@
       <c r="D52" s="71"/>
       <c r="E52" s="71"/>
       <c r="F52" s="71"/>
-      <c r="G52" s="180"/>
+      <c r="G52" s="127"/>
       <c r="H52" s="72"/>
-      <c r="I52" s="186"/>
-      <c r="J52" s="186"/>
-      <c r="K52" s="186"/>
-      <c r="L52" s="187"/>
-      <c r="M52" s="188"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="134"/>
+      <c r="M52" s="135"/>
       <c r="N52" s="73"/>
-      <c r="P52" s="108"/>
-      <c r="Q52" s="108"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="94"/>
     </row>
     <row r="53" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="65" t="s">
@@ -4906,16 +4906,16 @@
       <c r="D53" s="71"/>
       <c r="E53" s="71"/>
       <c r="F53" s="71"/>
-      <c r="G53" s="180"/>
+      <c r="G53" s="127"/>
       <c r="H53" s="72"/>
-      <c r="I53" s="186"/>
-      <c r="J53" s="186"/>
-      <c r="K53" s="186"/>
-      <c r="L53" s="187"/>
-      <c r="M53" s="188"/>
+      <c r="I53" s="133"/>
+      <c r="J53" s="133"/>
+      <c r="K53" s="133"/>
+      <c r="L53" s="134"/>
+      <c r="M53" s="135"/>
       <c r="N53" s="73"/>
-      <c r="P53" s="108"/>
-      <c r="Q53" s="108"/>
+      <c r="P53" s="94"/>
+      <c r="Q53" s="94"/>
     </row>
     <row r="54" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="65" t="s">
@@ -4926,16 +4926,16 @@
       <c r="D54" s="71"/>
       <c r="E54" s="71"/>
       <c r="F54" s="71"/>
-      <c r="G54" s="180"/>
+      <c r="G54" s="127"/>
       <c r="H54" s="72"/>
-      <c r="I54" s="186"/>
-      <c r="J54" s="186"/>
-      <c r="K54" s="186"/>
-      <c r="L54" s="187"/>
-      <c r="M54" s="188"/>
+      <c r="I54" s="133"/>
+      <c r="J54" s="133"/>
+      <c r="K54" s="133"/>
+      <c r="L54" s="134"/>
+      <c r="M54" s="135"/>
       <c r="N54" s="73"/>
-      <c r="P54" s="108"/>
-      <c r="Q54" s="108"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="94"/>
     </row>
     <row r="55" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="65" t="s">
@@ -4946,16 +4946,16 @@
       <c r="D55" s="71"/>
       <c r="E55" s="71"/>
       <c r="F55" s="71"/>
-      <c r="G55" s="180"/>
+      <c r="G55" s="127"/>
       <c r="H55" s="72"/>
-      <c r="I55" s="186"/>
-      <c r="J55" s="186"/>
-      <c r="K55" s="186"/>
-      <c r="L55" s="187"/>
-      <c r="M55" s="188"/>
+      <c r="I55" s="133"/>
+      <c r="J55" s="133"/>
+      <c r="K55" s="133"/>
+      <c r="L55" s="134"/>
+      <c r="M55" s="135"/>
       <c r="N55" s="73"/>
-      <c r="P55" s="108"/>
-      <c r="Q55" s="108"/>
+      <c r="P55" s="94"/>
+      <c r="Q55" s="94"/>
     </row>
     <row r="56" spans="1:19" s="1" customFormat="1">
       <c r="A56" s="65" t="s">
@@ -4966,16 +4966,16 @@
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
       <c r="F56" s="71"/>
-      <c r="G56" s="181"/>
+      <c r="G56" s="128"/>
       <c r="H56" s="75"/>
-      <c r="I56" s="189"/>
-      <c r="J56" s="189"/>
-      <c r="K56" s="189"/>
-      <c r="L56" s="190"/>
-      <c r="M56" s="191"/>
+      <c r="I56" s="136"/>
+      <c r="J56" s="136"/>
+      <c r="K56" s="136"/>
+      <c r="L56" s="137"/>
+      <c r="M56" s="138"/>
       <c r="N56" s="76"/>
-      <c r="P56" s="108"/>
-      <c r="Q56" s="108"/>
+      <c r="P56" s="94"/>
+      <c r="Q56" s="94"/>
     </row>
     <row r="57" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A57" s="77" t="s">
@@ -5003,16 +5003,16 @@
       <c r="G57" s="79">
         <v>0</v>
       </c>
-      <c r="H57" s="199" t="s">
+      <c r="H57" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="I57" s="200"/>
-      <c r="J57" s="200"/>
-      <c r="K57" s="201"/>
-      <c r="L57" s="202">
+      <c r="I57" s="114"/>
+      <c r="J57" s="114"/>
+      <c r="K57" s="115"/>
+      <c r="L57" s="116">
         <v>0</v>
       </c>
-      <c r="M57" s="203"/>
+      <c r="M57" s="117"/>
       <c r="N57" s="80">
         <f>L57*3</f>
         <v>0</v>
@@ -5020,57 +5020,57 @@
     </row>
     <row r="58" spans="1:19" s="1" customFormat="1"/>
     <row r="59" spans="1:19" s="1" customFormat="1">
-      <c r="A59" s="168" t="s">
+      <c r="A59" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="168"/>
-      <c r="C59" s="168"/>
-      <c r="D59" s="168"/>
-      <c r="E59" s="168"/>
-      <c r="F59" s="168"/>
-      <c r="G59" s="168"/>
-      <c r="H59" s="168"/>
-      <c r="I59" s="168"/>
-      <c r="J59" s="168"/>
-      <c r="K59" s="168"/>
-      <c r="L59" s="168"/>
-      <c r="M59" s="168"/>
-      <c r="N59" s="168"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="118"/>
+      <c r="H59" s="118"/>
+      <c r="I59" s="118"/>
+      <c r="J59" s="118"/>
+      <c r="K59" s="118"/>
+      <c r="L59" s="118"/>
+      <c r="M59" s="118"/>
+      <c r="N59" s="118"/>
     </row>
     <row r="60" spans="1:19" s="1" customFormat="1">
-      <c r="A60" s="172" t="s">
+      <c r="A60" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="204" t="s">
+      <c r="B60" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="205"/>
-      <c r="D60" s="205"/>
-      <c r="E60" s="205"/>
-      <c r="F60" s="205"/>
-      <c r="G60" s="205"/>
-      <c r="H60" s="205"/>
-      <c r="I60" s="205"/>
-      <c r="J60" s="205"/>
-      <c r="K60" s="206"/>
-      <c r="L60" s="156" t="s">
+      <c r="C60" s="120"/>
+      <c r="D60" s="120"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="120"/>
+      <c r="K60" s="121"/>
+      <c r="L60" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="M60" s="157"/>
-      <c r="N60" s="158"/>
+      <c r="M60" s="89"/>
+      <c r="N60" s="90"/>
     </row>
     <row r="61" spans="1:19" s="1" customFormat="1">
-      <c r="A61" s="172"/>
-      <c r="B61" s="207"/>
-      <c r="C61" s="208"/>
-      <c r="D61" s="208"/>
-      <c r="E61" s="208"/>
-      <c r="F61" s="208"/>
-      <c r="G61" s="208"/>
-      <c r="H61" s="208"/>
-      <c r="I61" s="208"/>
-      <c r="J61" s="208"/>
-      <c r="K61" s="209"/>
+      <c r="A61" s="101"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="123"/>
+      <c r="H61" s="123"/>
+      <c r="I61" s="123"/>
+      <c r="J61" s="123"/>
+      <c r="K61" s="124"/>
       <c r="L61" s="61" t="s">
         <v>46</v>
       </c>
@@ -5082,697 +5082,827 @@
       </c>
     </row>
     <row r="62" spans="1:19" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A62" s="172" t="s">
+      <c r="A62" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="B62" s="210" t="s">
+      <c r="B62" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="211"/>
-      <c r="D62" s="211"/>
-      <c r="E62" s="211"/>
-      <c r="F62" s="211"/>
-      <c r="G62" s="211"/>
-      <c r="H62" s="211"/>
-      <c r="I62" s="211"/>
-      <c r="J62" s="211"/>
-      <c r="K62" s="212"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="97"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="97"/>
+      <c r="I62" s="97"/>
+      <c r="J62" s="97"/>
+      <c r="K62" s="98"/>
       <c r="L62" s="81" t="s">
         <v>91</v>
       </c>
       <c r="M62" s="82"/>
-      <c r="N62" s="214">
+      <c r="N62" s="125">
         <f>IF(ISERROR(AVERAGE(M63:M64)),0,ROUNDUP(AVERAGE(M63:M64), 1))</f>
         <v>0</v>
       </c>
-      <c r="P62" s="198" t="s">
+      <c r="P62" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="Q62" s="108"/>
-      <c r="R62" s="108"/>
-      <c r="S62" s="108"/>
+      <c r="Q62" s="94"/>
+      <c r="R62" s="94"/>
+      <c r="S62" s="94"/>
     </row>
     <row r="63" spans="1:19" s="1" customFormat="1">
-      <c r="A63" s="172"/>
-      <c r="B63" s="213"/>
-      <c r="C63" s="211"/>
-      <c r="D63" s="211"/>
-      <c r="E63" s="211"/>
-      <c r="F63" s="211"/>
-      <c r="G63" s="211"/>
-      <c r="H63" s="211"/>
-      <c r="I63" s="211"/>
-      <c r="J63" s="211"/>
-      <c r="K63" s="212"/>
+      <c r="A63" s="101"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="97"/>
+      <c r="J63" s="97"/>
+      <c r="K63" s="98"/>
       <c r="L63" s="83" t="s">
         <v>93</v>
       </c>
       <c r="M63" s="84"/>
-      <c r="N63" s="90"/>
-      <c r="P63" s="108"/>
-      <c r="Q63" s="108"/>
-      <c r="R63" s="108"/>
-      <c r="S63" s="108"/>
+      <c r="N63" s="100"/>
+      <c r="P63" s="94"/>
+      <c r="Q63" s="94"/>
+      <c r="R63" s="94"/>
+      <c r="S63" s="94"/>
     </row>
     <row r="64" spans="1:19" s="1" customFormat="1">
-      <c r="A64" s="172"/>
-      <c r="B64" s="213"/>
-      <c r="C64" s="211"/>
-      <c r="D64" s="211"/>
-      <c r="E64" s="211"/>
-      <c r="F64" s="211"/>
-      <c r="G64" s="211"/>
-      <c r="H64" s="211"/>
-      <c r="I64" s="211"/>
-      <c r="J64" s="211"/>
-      <c r="K64" s="212"/>
+      <c r="A64" s="101"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="97"/>
+      <c r="G64" s="97"/>
+      <c r="H64" s="97"/>
+      <c r="I64" s="97"/>
+      <c r="J64" s="97"/>
+      <c r="K64" s="98"/>
       <c r="L64" s="85" t="s">
         <v>94</v>
       </c>
       <c r="M64" s="86"/>
-      <c r="N64" s="90"/>
-      <c r="P64" s="108"/>
-      <c r="Q64" s="108"/>
-      <c r="R64" s="108"/>
-      <c r="S64" s="108"/>
+      <c r="N64" s="100"/>
+      <c r="P64" s="94"/>
+      <c r="Q64" s="94"/>
+      <c r="R64" s="94"/>
+      <c r="S64" s="94"/>
     </row>
     <row r="65" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A65" s="172"/>
-      <c r="B65" s="210" t="s">
+      <c r="A65" s="101"/>
+      <c r="B65" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="211"/>
-      <c r="D65" s="211"/>
-      <c r="E65" s="211"/>
-      <c r="F65" s="211"/>
-      <c r="G65" s="211"/>
-      <c r="H65" s="211"/>
-      <c r="I65" s="211"/>
-      <c r="J65" s="211"/>
-      <c r="K65" s="212"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="97"/>
+      <c r="J65" s="97"/>
+      <c r="K65" s="98"/>
       <c r="L65" s="83" t="s">
         <v>91</v>
       </c>
       <c r="M65" s="82"/>
-      <c r="N65" s="90">
+      <c r="N65" s="100">
         <f>IF(ISERROR(AVERAGE(M66:M67)),0,ROUNDUP(AVERAGE(M66:M67), 1))</f>
         <v>0</v>
       </c>
-      <c r="P65" s="198" t="s">
+      <c r="P65" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="Q65" s="108"/>
-      <c r="R65" s="108"/>
-      <c r="S65" s="217"/>
+      <c r="Q65" s="94"/>
+      <c r="R65" s="94"/>
+      <c r="S65" s="95"/>
     </row>
     <row r="66" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A66" s="172"/>
-      <c r="B66" s="213"/>
-      <c r="C66" s="211"/>
-      <c r="D66" s="211"/>
-      <c r="E66" s="211"/>
-      <c r="F66" s="211"/>
-      <c r="G66" s="211"/>
-      <c r="H66" s="211"/>
-      <c r="I66" s="211"/>
-      <c r="J66" s="211"/>
-      <c r="K66" s="212"/>
+      <c r="A66" s="101"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="97"/>
+      <c r="K66" s="98"/>
       <c r="L66" s="83" t="s">
         <v>93</v>
       </c>
       <c r="M66" s="84"/>
-      <c r="N66" s="90"/>
-      <c r="P66" s="108"/>
-      <c r="Q66" s="108"/>
-      <c r="R66" s="108"/>
-      <c r="S66" s="217"/>
+      <c r="N66" s="100"/>
+      <c r="P66" s="94"/>
+      <c r="Q66" s="94"/>
+      <c r="R66" s="94"/>
+      <c r="S66" s="95"/>
     </row>
     <row r="67" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A67" s="172"/>
-      <c r="B67" s="213"/>
-      <c r="C67" s="211"/>
-      <c r="D67" s="211"/>
-      <c r="E67" s="211"/>
-      <c r="F67" s="211"/>
-      <c r="G67" s="211"/>
-      <c r="H67" s="211"/>
-      <c r="I67" s="211"/>
-      <c r="J67" s="211"/>
-      <c r="K67" s="212"/>
+      <c r="A67" s="101"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="97"/>
+      <c r="F67" s="97"/>
+      <c r="G67" s="97"/>
+      <c r="H67" s="97"/>
+      <c r="I67" s="97"/>
+      <c r="J67" s="97"/>
+      <c r="K67" s="98"/>
       <c r="L67" s="85" t="s">
         <v>94</v>
       </c>
       <c r="M67" s="86"/>
-      <c r="N67" s="90"/>
-      <c r="P67" s="108"/>
-      <c r="Q67" s="108"/>
-      <c r="R67" s="108"/>
-      <c r="S67" s="217"/>
+      <c r="N67" s="100"/>
+      <c r="P67" s="94"/>
+      <c r="Q67" s="94"/>
+      <c r="R67" s="94"/>
+      <c r="S67" s="95"/>
     </row>
     <row r="68" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A68" s="172" t="s">
+      <c r="A68" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="210" t="s">
+      <c r="B68" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="211"/>
-      <c r="D68" s="211"/>
-      <c r="E68" s="211"/>
-      <c r="F68" s="211"/>
-      <c r="G68" s="211"/>
-      <c r="H68" s="211"/>
-      <c r="I68" s="211"/>
-      <c r="J68" s="211"/>
-      <c r="K68" s="212"/>
+      <c r="C68" s="97"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="97"/>
+      <c r="F68" s="97"/>
+      <c r="G68" s="97"/>
+      <c r="H68" s="97"/>
+      <c r="I68" s="97"/>
+      <c r="J68" s="97"/>
+      <c r="K68" s="98"/>
       <c r="L68" s="81" t="s">
         <v>91</v>
       </c>
       <c r="M68" s="82"/>
-      <c r="N68" s="90">
+      <c r="N68" s="100">
         <f>IF(ISERROR(AVERAGE(M69:M70)),0,ROUNDUP(AVERAGE(M69:M70), 1))</f>
         <v>0</v>
       </c>
-      <c r="P68" s="198" t="s">
+      <c r="P68" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="Q68" s="108"/>
-      <c r="R68" s="108"/>
-      <c r="S68" s="217"/>
+      <c r="Q68" s="94"/>
+      <c r="R68" s="94"/>
+      <c r="S68" s="95"/>
     </row>
     <row r="69" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A69" s="172"/>
-      <c r="B69" s="213"/>
-      <c r="C69" s="211"/>
-      <c r="D69" s="211"/>
-      <c r="E69" s="211"/>
-      <c r="F69" s="211"/>
-      <c r="G69" s="211"/>
-      <c r="H69" s="211"/>
-      <c r="I69" s="211"/>
-      <c r="J69" s="211"/>
-      <c r="K69" s="212"/>
+      <c r="A69" s="101"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="97"/>
+      <c r="H69" s="97"/>
+      <c r="I69" s="97"/>
+      <c r="J69" s="97"/>
+      <c r="K69" s="98"/>
       <c r="L69" s="83" t="s">
         <v>93</v>
       </c>
       <c r="M69" s="84"/>
-      <c r="N69" s="90"/>
-      <c r="P69" s="108"/>
-      <c r="Q69" s="108"/>
-      <c r="R69" s="108"/>
-      <c r="S69" s="217"/>
+      <c r="N69" s="100"/>
+      <c r="P69" s="94"/>
+      <c r="Q69" s="94"/>
+      <c r="R69" s="94"/>
+      <c r="S69" s="95"/>
     </row>
     <row r="70" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A70" s="172"/>
-      <c r="B70" s="213"/>
-      <c r="C70" s="211"/>
-      <c r="D70" s="211"/>
-      <c r="E70" s="211"/>
-      <c r="F70" s="211"/>
-      <c r="G70" s="211"/>
-      <c r="H70" s="211"/>
-      <c r="I70" s="211"/>
-      <c r="J70" s="211"/>
-      <c r="K70" s="212"/>
+      <c r="A70" s="101"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="97"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="97"/>
+      <c r="F70" s="97"/>
+      <c r="G70" s="97"/>
+      <c r="H70" s="97"/>
+      <c r="I70" s="97"/>
+      <c r="J70" s="97"/>
+      <c r="K70" s="98"/>
       <c r="L70" s="85" t="s">
         <v>94</v>
       </c>
       <c r="M70" s="86"/>
-      <c r="N70" s="90"/>
-      <c r="P70" s="108"/>
-      <c r="Q70" s="108"/>
-      <c r="R70" s="108"/>
-      <c r="S70" s="217"/>
+      <c r="N70" s="100"/>
+      <c r="P70" s="94"/>
+      <c r="Q70" s="94"/>
+      <c r="R70" s="94"/>
+      <c r="S70" s="95"/>
     </row>
     <row r="71" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A71" s="172"/>
-      <c r="B71" s="210" t="s">
+      <c r="A71" s="101"/>
+      <c r="B71" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="211"/>
-      <c r="D71" s="211"/>
-      <c r="E71" s="211"/>
-      <c r="F71" s="211"/>
-      <c r="G71" s="211"/>
-      <c r="H71" s="211"/>
-      <c r="I71" s="211"/>
-      <c r="J71" s="211"/>
-      <c r="K71" s="212"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="97"/>
+      <c r="E71" s="97"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="97"/>
+      <c r="I71" s="97"/>
+      <c r="J71" s="97"/>
+      <c r="K71" s="98"/>
       <c r="L71" s="83" t="s">
         <v>91</v>
       </c>
       <c r="M71" s="82"/>
-      <c r="N71" s="90">
+      <c r="N71" s="100">
         <f>IF(ISERROR(AVERAGE(M72:M73)),0,ROUNDUP(AVERAGE(M72:M73), 1))</f>
         <v>0</v>
       </c>
-      <c r="P71" s="198" t="s">
+      <c r="P71" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="Q71" s="108"/>
-      <c r="R71" s="108"/>
-      <c r="S71" s="217"/>
+      <c r="Q71" s="94"/>
+      <c r="R71" s="94"/>
+      <c r="S71" s="95"/>
     </row>
     <row r="72" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A72" s="172"/>
-      <c r="B72" s="213"/>
-      <c r="C72" s="211"/>
-      <c r="D72" s="211"/>
-      <c r="E72" s="211"/>
-      <c r="F72" s="211"/>
-      <c r="G72" s="211"/>
-      <c r="H72" s="211"/>
-      <c r="I72" s="211"/>
-      <c r="J72" s="211"/>
-      <c r="K72" s="212"/>
+      <c r="A72" s="101"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="97"/>
+      <c r="F72" s="97"/>
+      <c r="G72" s="97"/>
+      <c r="H72" s="97"/>
+      <c r="I72" s="97"/>
+      <c r="J72" s="97"/>
+      <c r="K72" s="98"/>
       <c r="L72" s="83" t="s">
         <v>93</v>
       </c>
       <c r="M72" s="84"/>
-      <c r="N72" s="90"/>
-      <c r="P72" s="108"/>
-      <c r="Q72" s="108"/>
-      <c r="R72" s="108"/>
-      <c r="S72" s="217"/>
+      <c r="N72" s="100"/>
+      <c r="P72" s="94"/>
+      <c r="Q72" s="94"/>
+      <c r="R72" s="94"/>
+      <c r="S72" s="95"/>
     </row>
     <row r="73" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A73" s="172"/>
-      <c r="B73" s="213"/>
-      <c r="C73" s="211"/>
-      <c r="D73" s="211"/>
-      <c r="E73" s="211"/>
-      <c r="F73" s="211"/>
-      <c r="G73" s="211"/>
-      <c r="H73" s="211"/>
-      <c r="I73" s="211"/>
-      <c r="J73" s="211"/>
-      <c r="K73" s="212"/>
+      <c r="A73" s="101"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="97"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="97"/>
+      <c r="G73" s="97"/>
+      <c r="H73" s="97"/>
+      <c r="I73" s="97"/>
+      <c r="J73" s="97"/>
+      <c r="K73" s="98"/>
       <c r="L73" s="85" t="s">
         <v>94</v>
       </c>
       <c r="M73" s="86"/>
-      <c r="N73" s="90"/>
-      <c r="P73" s="108"/>
-      <c r="Q73" s="108"/>
-      <c r="R73" s="108"/>
-      <c r="S73" s="217"/>
+      <c r="N73" s="100"/>
+      <c r="P73" s="94"/>
+      <c r="Q73" s="94"/>
+      <c r="R73" s="94"/>
+      <c r="S73" s="95"/>
     </row>
     <row r="74" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A74" s="172"/>
-      <c r="B74" s="210" t="s">
+      <c r="A74" s="101"/>
+      <c r="B74" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C74" s="218"/>
-      <c r="D74" s="218"/>
-      <c r="E74" s="218"/>
-      <c r="F74" s="218"/>
-      <c r="G74" s="218"/>
-      <c r="H74" s="218"/>
-      <c r="I74" s="218"/>
-      <c r="J74" s="218"/>
-      <c r="K74" s="219"/>
+      <c r="C74" s="102"/>
+      <c r="D74" s="102"/>
+      <c r="E74" s="102"/>
+      <c r="F74" s="102"/>
+      <c r="G74" s="102"/>
+      <c r="H74" s="102"/>
+      <c r="I74" s="102"/>
+      <c r="J74" s="102"/>
+      <c r="K74" s="103"/>
       <c r="L74" s="83" t="s">
         <v>91</v>
       </c>
       <c r="M74" s="82"/>
-      <c r="N74" s="90">
+      <c r="N74" s="100">
         <f>IF(ISERROR(AVERAGE(M75:M76)),0,ROUNDUP(AVERAGE(M75:M76), 1))</f>
         <v>0</v>
       </c>
-      <c r="P74" s="198" t="s">
+      <c r="P74" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="Q74" s="108"/>
-      <c r="R74" s="108"/>
-      <c r="S74" s="217"/>
+      <c r="Q74" s="94"/>
+      <c r="R74" s="94"/>
+      <c r="S74" s="95"/>
     </row>
     <row r="75" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A75" s="172"/>
-      <c r="B75" s="220"/>
-      <c r="C75" s="218"/>
-      <c r="D75" s="218"/>
-      <c r="E75" s="218"/>
-      <c r="F75" s="218"/>
-      <c r="G75" s="218"/>
-      <c r="H75" s="218"/>
-      <c r="I75" s="218"/>
-      <c r="J75" s="218"/>
-      <c r="K75" s="219"/>
+      <c r="A75" s="101"/>
+      <c r="B75" s="104"/>
+      <c r="C75" s="102"/>
+      <c r="D75" s="102"/>
+      <c r="E75" s="102"/>
+      <c r="F75" s="102"/>
+      <c r="G75" s="102"/>
+      <c r="H75" s="102"/>
+      <c r="I75" s="102"/>
+      <c r="J75" s="102"/>
+      <c r="K75" s="103"/>
       <c r="L75" s="83" t="s">
         <v>93</v>
       </c>
       <c r="M75" s="84"/>
-      <c r="N75" s="90"/>
-      <c r="P75" s="108"/>
-      <c r="Q75" s="108"/>
-      <c r="R75" s="108"/>
-      <c r="S75" s="217"/>
+      <c r="N75" s="100"/>
+      <c r="P75" s="94"/>
+      <c r="Q75" s="94"/>
+      <c r="R75" s="94"/>
+      <c r="S75" s="95"/>
     </row>
     <row r="76" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A76" s="172"/>
-      <c r="B76" s="220"/>
-      <c r="C76" s="218"/>
-      <c r="D76" s="218"/>
-      <c r="E76" s="218"/>
-      <c r="F76" s="218"/>
-      <c r="G76" s="218"/>
-      <c r="H76" s="218"/>
-      <c r="I76" s="218"/>
-      <c r="J76" s="218"/>
-      <c r="K76" s="219"/>
+      <c r="A76" s="101"/>
+      <c r="B76" s="104"/>
+      <c r="C76" s="102"/>
+      <c r="D76" s="102"/>
+      <c r="E76" s="102"/>
+      <c r="F76" s="102"/>
+      <c r="G76" s="102"/>
+      <c r="H76" s="102"/>
+      <c r="I76" s="102"/>
+      <c r="J76" s="102"/>
+      <c r="K76" s="103"/>
       <c r="L76" s="85" t="s">
         <v>94</v>
       </c>
       <c r="M76" s="86"/>
-      <c r="N76" s="90"/>
-      <c r="P76" s="108"/>
-      <c r="Q76" s="108"/>
-      <c r="R76" s="108"/>
-      <c r="S76" s="217"/>
+      <c r="N76" s="100"/>
+      <c r="P76" s="94"/>
+      <c r="Q76" s="94"/>
+      <c r="R76" s="94"/>
+      <c r="S76" s="95"/>
     </row>
     <row r="77" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A77" s="221" t="s">
+      <c r="A77" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="192" t="s">
+      <c r="B77" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="108"/>
-      <c r="D77" s="108"/>
-      <c r="E77" s="108"/>
-      <c r="F77" s="108"/>
-      <c r="G77" s="108"/>
-      <c r="H77" s="108"/>
-      <c r="I77" s="108"/>
-      <c r="J77" s="108"/>
-      <c r="K77" s="193"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="94"/>
+      <c r="F77" s="94"/>
+      <c r="G77" s="94"/>
+      <c r="H77" s="94"/>
+      <c r="I77" s="94"/>
+      <c r="J77" s="94"/>
+      <c r="K77" s="108"/>
       <c r="L77" s="87" t="s">
         <v>91</v>
       </c>
       <c r="M77" s="49"/>
-      <c r="N77" s="90">
+      <c r="N77" s="100">
         <f>IF(ISERROR(AVERAGE(M78:M79)),0,ROUNDUP(AVERAGE(M78:M79), 1))</f>
         <v>0</v>
       </c>
-      <c r="P77" s="198" t="s">
+      <c r="P77" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="Q77" s="108"/>
-      <c r="R77" s="108"/>
-      <c r="S77" s="108"/>
+      <c r="Q77" s="94"/>
+      <c r="R77" s="94"/>
+      <c r="S77" s="94"/>
     </row>
     <row r="78" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A78" s="221"/>
-      <c r="B78" s="194"/>
-      <c r="C78" s="108"/>
-      <c r="D78" s="108"/>
-      <c r="E78" s="108"/>
-      <c r="F78" s="108"/>
-      <c r="G78" s="108"/>
-      <c r="H78" s="108"/>
-      <c r="I78" s="108"/>
-      <c r="J78" s="108"/>
-      <c r="K78" s="193"/>
+      <c r="A78" s="105"/>
+      <c r="B78" s="109"/>
+      <c r="C78" s="94"/>
+      <c r="D78" s="94"/>
+      <c r="E78" s="94"/>
+      <c r="F78" s="94"/>
+      <c r="G78" s="94"/>
+      <c r="H78" s="94"/>
+      <c r="I78" s="94"/>
+      <c r="J78" s="94"/>
+      <c r="K78" s="108"/>
       <c r="L78" s="83" t="s">
         <v>93</v>
       </c>
       <c r="M78" s="84"/>
-      <c r="N78" s="90"/>
-      <c r="P78" s="108"/>
-      <c r="Q78" s="108"/>
-      <c r="R78" s="108"/>
-      <c r="S78" s="108"/>
+      <c r="N78" s="100"/>
+      <c r="P78" s="94"/>
+      <c r="Q78" s="94"/>
+      <c r="R78" s="94"/>
+      <c r="S78" s="94"/>
     </row>
     <row r="79" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A79" s="221"/>
-      <c r="B79" s="195"/>
-      <c r="C79" s="196"/>
-      <c r="D79" s="196"/>
-      <c r="E79" s="196"/>
-      <c r="F79" s="196"/>
-      <c r="G79" s="196"/>
-      <c r="H79" s="196"/>
-      <c r="I79" s="196"/>
-      <c r="J79" s="196"/>
-      <c r="K79" s="197"/>
+      <c r="A79" s="105"/>
+      <c r="B79" s="110"/>
+      <c r="C79" s="111"/>
+      <c r="D79" s="111"/>
+      <c r="E79" s="111"/>
+      <c r="F79" s="111"/>
+      <c r="G79" s="111"/>
+      <c r="H79" s="111"/>
+      <c r="I79" s="111"/>
+      <c r="J79" s="111"/>
+      <c r="K79" s="112"/>
       <c r="L79" s="85" t="s">
         <v>94</v>
       </c>
       <c r="M79" s="86"/>
-      <c r="N79" s="90"/>
-      <c r="P79" s="108"/>
-      <c r="Q79" s="108"/>
-      <c r="R79" s="108"/>
-      <c r="S79" s="108"/>
+      <c r="N79" s="100"/>
+      <c r="P79" s="94"/>
+      <c r="Q79" s="94"/>
+      <c r="R79" s="94"/>
+      <c r="S79" s="94"/>
     </row>
     <row r="80" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A80" s="221"/>
-      <c r="B80" s="192" t="s">
+      <c r="A80" s="105"/>
+      <c r="B80" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="C80" s="108"/>
-      <c r="D80" s="108"/>
-      <c r="E80" s="108"/>
-      <c r="F80" s="108"/>
-      <c r="G80" s="108"/>
-      <c r="H80" s="108"/>
-      <c r="I80" s="108"/>
-      <c r="J80" s="108"/>
-      <c r="K80" s="193"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="94"/>
+      <c r="F80" s="94"/>
+      <c r="G80" s="94"/>
+      <c r="H80" s="94"/>
+      <c r="I80" s="94"/>
+      <c r="J80" s="94"/>
+      <c r="K80" s="108"/>
       <c r="L80" s="87" t="s">
         <v>91</v>
       </c>
       <c r="M80" s="49"/>
-      <c r="N80" s="90">
+      <c r="N80" s="100">
         <f>IF(ISERROR(AVERAGE(M81:M82)),0,ROUNDUP(AVERAGE(M81:M82), 1))</f>
         <v>0</v>
       </c>
-      <c r="P80" s="198" t="s">
+      <c r="P80" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="Q80" s="108"/>
-      <c r="R80" s="108"/>
-      <c r="S80" s="108"/>
+      <c r="Q80" s="94"/>
+      <c r="R80" s="94"/>
+      <c r="S80" s="94"/>
     </row>
     <row r="81" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A81" s="221"/>
-      <c r="B81" s="194"/>
-      <c r="C81" s="108"/>
-      <c r="D81" s="108"/>
-      <c r="E81" s="108"/>
-      <c r="F81" s="108"/>
-      <c r="G81" s="108"/>
-      <c r="H81" s="108"/>
-      <c r="I81" s="108"/>
-      <c r="J81" s="108"/>
-      <c r="K81" s="193"/>
+      <c r="A81" s="105"/>
+      <c r="B81" s="109"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="94"/>
+      <c r="F81" s="94"/>
+      <c r="G81" s="94"/>
+      <c r="H81" s="94"/>
+      <c r="I81" s="94"/>
+      <c r="J81" s="94"/>
+      <c r="K81" s="108"/>
       <c r="L81" s="83" t="s">
         <v>93</v>
       </c>
       <c r="M81" s="84"/>
-      <c r="N81" s="90"/>
-      <c r="P81" s="108"/>
-      <c r="Q81" s="108"/>
-      <c r="R81" s="108"/>
-      <c r="S81" s="108"/>
+      <c r="N81" s="100"/>
+      <c r="P81" s="94"/>
+      <c r="Q81" s="94"/>
+      <c r="R81" s="94"/>
+      <c r="S81" s="94"/>
     </row>
     <row r="82" spans="1:19" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A82" s="221"/>
-      <c r="B82" s="195"/>
-      <c r="C82" s="196"/>
-      <c r="D82" s="196"/>
-      <c r="E82" s="196"/>
-      <c r="F82" s="196"/>
-      <c r="G82" s="196"/>
-      <c r="H82" s="196"/>
-      <c r="I82" s="196"/>
-      <c r="J82" s="196"/>
-      <c r="K82" s="197"/>
+      <c r="A82" s="105"/>
+      <c r="B82" s="110"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
+      <c r="G82" s="111"/>
+      <c r="H82" s="111"/>
+      <c r="I82" s="111"/>
+      <c r="J82" s="111"/>
+      <c r="K82" s="112"/>
       <c r="L82" s="85" t="s">
         <v>94</v>
       </c>
       <c r="M82" s="86"/>
-      <c r="N82" s="90"/>
-      <c r="P82" s="108"/>
-      <c r="Q82" s="108"/>
-      <c r="R82" s="108"/>
-      <c r="S82" s="108"/>
+      <c r="N82" s="100"/>
+      <c r="P82" s="94"/>
+      <c r="Q82" s="94"/>
+      <c r="R82" s="94"/>
+      <c r="S82" s="94"/>
     </row>
     <row r="83" spans="1:19" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A83" s="221"/>
-      <c r="B83" s="192" t="s">
+      <c r="A83" s="105"/>
+      <c r="B83" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="C83" s="108"/>
-      <c r="D83" s="108"/>
-      <c r="E83" s="108"/>
-      <c r="F83" s="108"/>
-      <c r="G83" s="108"/>
-      <c r="H83" s="108"/>
-      <c r="I83" s="108"/>
-      <c r="J83" s="108"/>
-      <c r="K83" s="193"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="94"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="94"/>
+      <c r="H83" s="94"/>
+      <c r="I83" s="94"/>
+      <c r="J83" s="94"/>
+      <c r="K83" s="108"/>
       <c r="L83" s="87" t="s">
         <v>91</v>
       </c>
       <c r="M83" s="49"/>
-      <c r="N83" s="90">
+      <c r="N83" s="100">
         <f>IF(ISERROR(AVERAGE(M84:M85)),0,ROUNDUP(AVERAGE(M84:M85), 1))</f>
         <v>0</v>
       </c>
-      <c r="P83" s="198" t="s">
+      <c r="P83" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="Q83" s="108"/>
-      <c r="R83" s="108"/>
-      <c r="S83" s="108"/>
+      <c r="Q83" s="94"/>
+      <c r="R83" s="94"/>
+      <c r="S83" s="94"/>
     </row>
     <row r="84" spans="1:19" s="1" customFormat="1">
-      <c r="A84" s="221"/>
-      <c r="B84" s="194"/>
-      <c r="C84" s="108"/>
-      <c r="D84" s="108"/>
-      <c r="E84" s="108"/>
-      <c r="F84" s="108"/>
-      <c r="G84" s="108"/>
-      <c r="H84" s="108"/>
-      <c r="I84" s="108"/>
-      <c r="J84" s="108"/>
-      <c r="K84" s="193"/>
+      <c r="A84" s="105"/>
+      <c r="B84" s="109"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="94"/>
+      <c r="F84" s="94"/>
+      <c r="G84" s="94"/>
+      <c r="H84" s="94"/>
+      <c r="I84" s="94"/>
+      <c r="J84" s="94"/>
+      <c r="K84" s="108"/>
       <c r="L84" s="83" t="s">
         <v>93</v>
       </c>
       <c r="M84" s="84"/>
-      <c r="N84" s="90"/>
-      <c r="P84" s="108"/>
-      <c r="Q84" s="108"/>
-      <c r="R84" s="108"/>
-      <c r="S84" s="108"/>
+      <c r="N84" s="100"/>
+      <c r="P84" s="94"/>
+      <c r="Q84" s="94"/>
+      <c r="R84" s="94"/>
+      <c r="S84" s="94"/>
     </row>
     <row r="85" spans="1:19" s="1" customFormat="1">
-      <c r="A85" s="221"/>
-      <c r="B85" s="195"/>
-      <c r="C85" s="196"/>
-      <c r="D85" s="196"/>
-      <c r="E85" s="196"/>
-      <c r="F85" s="196"/>
-      <c r="G85" s="196"/>
-      <c r="H85" s="196"/>
-      <c r="I85" s="196"/>
-      <c r="J85" s="196"/>
-      <c r="K85" s="197"/>
+      <c r="A85" s="105"/>
+      <c r="B85" s="110"/>
+      <c r="C85" s="111"/>
+      <c r="D85" s="111"/>
+      <c r="E85" s="111"/>
+      <c r="F85" s="111"/>
+      <c r="G85" s="111"/>
+      <c r="H85" s="111"/>
+      <c r="I85" s="111"/>
+      <c r="J85" s="111"/>
+      <c r="K85" s="112"/>
       <c r="L85" s="85" t="s">
         <v>94</v>
       </c>
       <c r="M85" s="86"/>
-      <c r="N85" s="90"/>
-      <c r="P85" s="108"/>
-      <c r="Q85" s="108"/>
-      <c r="R85" s="108"/>
-      <c r="S85" s="108"/>
+      <c r="N85" s="100"/>
+      <c r="P85" s="94"/>
+      <c r="Q85" s="94"/>
+      <c r="R85" s="94"/>
+      <c r="S85" s="94"/>
     </row>
     <row r="86" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A86" s="221"/>
-      <c r="B86" s="192" t="s">
+      <c r="A86" s="105"/>
+      <c r="B86" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="C86" s="108"/>
-      <c r="D86" s="108"/>
-      <c r="E86" s="108"/>
-      <c r="F86" s="108"/>
-      <c r="G86" s="108"/>
-      <c r="H86" s="108"/>
-      <c r="I86" s="108"/>
-      <c r="J86" s="108"/>
-      <c r="K86" s="193"/>
+      <c r="C86" s="94"/>
+      <c r="D86" s="94"/>
+      <c r="E86" s="94"/>
+      <c r="F86" s="94"/>
+      <c r="G86" s="94"/>
+      <c r="H86" s="94"/>
+      <c r="I86" s="94"/>
+      <c r="J86" s="94"/>
+      <c r="K86" s="108"/>
       <c r="L86" s="81" t="s">
         <v>91</v>
       </c>
       <c r="M86" s="82"/>
-      <c r="N86" s="90">
+      <c r="N86" s="100">
         <f>IF(ISERROR(AVERAGE(M87:M88)),0,ROUNDUP(AVERAGE(M87:M88), 1))</f>
         <v>0</v>
       </c>
-      <c r="P86" s="198" t="s">
+      <c r="P86" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="Q86" s="108"/>
-      <c r="R86" s="108"/>
-      <c r="S86" s="108"/>
+      <c r="Q86" s="94"/>
+      <c r="R86" s="94"/>
+      <c r="S86" s="94"/>
     </row>
     <row r="87" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A87" s="221"/>
-      <c r="B87" s="194"/>
-      <c r="C87" s="108"/>
-      <c r="D87" s="108"/>
-      <c r="E87" s="108"/>
-      <c r="F87" s="108"/>
-      <c r="G87" s="108"/>
-      <c r="H87" s="108"/>
-      <c r="I87" s="108"/>
-      <c r="J87" s="108"/>
-      <c r="K87" s="193"/>
+      <c r="A87" s="105"/>
+      <c r="B87" s="109"/>
+      <c r="C87" s="94"/>
+      <c r="D87" s="94"/>
+      <c r="E87" s="94"/>
+      <c r="F87" s="94"/>
+      <c r="G87" s="94"/>
+      <c r="H87" s="94"/>
+      <c r="I87" s="94"/>
+      <c r="J87" s="94"/>
+      <c r="K87" s="108"/>
       <c r="L87" s="83" t="s">
         <v>93</v>
       </c>
       <c r="M87" s="84"/>
-      <c r="N87" s="90"/>
-      <c r="P87" s="108"/>
-      <c r="Q87" s="108"/>
-      <c r="R87" s="108"/>
-      <c r="S87" s="108"/>
+      <c r="N87" s="100"/>
+      <c r="P87" s="94"/>
+      <c r="Q87" s="94"/>
+      <c r="R87" s="94"/>
+      <c r="S87" s="94"/>
     </row>
     <row r="88" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A88" s="222"/>
-      <c r="B88" s="195"/>
-      <c r="C88" s="196"/>
-      <c r="D88" s="196"/>
-      <c r="E88" s="196"/>
-      <c r="F88" s="196"/>
-      <c r="G88" s="196"/>
-      <c r="H88" s="196"/>
-      <c r="I88" s="196"/>
-      <c r="J88" s="196"/>
-      <c r="K88" s="197"/>
+      <c r="A88" s="106"/>
+      <c r="B88" s="110"/>
+      <c r="C88" s="111"/>
+      <c r="D88" s="111"/>
+      <c r="E88" s="111"/>
+      <c r="F88" s="111"/>
+      <c r="G88" s="111"/>
+      <c r="H88" s="111"/>
+      <c r="I88" s="111"/>
+      <c r="J88" s="111"/>
+      <c r="K88" s="112"/>
       <c r="L88" s="85" t="s">
         <v>94</v>
       </c>
       <c r="M88" s="84"/>
-      <c r="N88" s="90"/>
-      <c r="P88" s="108"/>
-      <c r="Q88" s="108"/>
-      <c r="R88" s="108"/>
-      <c r="S88" s="108"/>
+      <c r="N88" s="100"/>
+      <c r="P88" s="94"/>
+      <c r="Q88" s="94"/>
+      <c r="R88" s="94"/>
+      <c r="S88" s="94"/>
     </row>
     <row r="89" spans="1:19" s="1" customFormat="1">
       <c r="A89" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="B89" s="156" t="s">
+      <c r="B89" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="C89" s="157"/>
-      <c r="D89" s="157"/>
-      <c r="E89" s="157"/>
-      <c r="F89" s="157"/>
-      <c r="G89" s="157"/>
-      <c r="H89" s="157"/>
-      <c r="I89" s="157"/>
-      <c r="J89" s="157"/>
-      <c r="K89" s="158"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="89"/>
+      <c r="E89" s="89"/>
+      <c r="F89" s="89"/>
+      <c r="G89" s="89"/>
+      <c r="H89" s="89"/>
+      <c r="I89" s="89"/>
+      <c r="J89" s="89"/>
+      <c r="K89" s="90"/>
       <c r="L89" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M89" s="215">
+      <c r="M89" s="91">
         <f>SUM(N62:N88)</f>
         <v>0</v>
       </c>
-      <c r="N89" s="216"/>
-      <c r="R89" s="108"/>
-      <c r="S89" s="108"/>
+      <c r="N89" s="92"/>
+      <c r="R89" s="94"/>
+      <c r="S89" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="A26:N26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:N49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="P51:Q56"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="B83:K85"/>
+    <mergeCell ref="N83:N85"/>
+    <mergeCell ref="P83:Q85"/>
+    <mergeCell ref="B86:K88"/>
+    <mergeCell ref="N86:N88"/>
+    <mergeCell ref="P86:Q88"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="A59:N59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:K61"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:K64"/>
+    <mergeCell ref="N62:N64"/>
     <mergeCell ref="B89:K89"/>
     <mergeCell ref="M89:N89"/>
     <mergeCell ref="P62:Q64"/>
@@ -5797,136 +5927,6 @@
     <mergeCell ref="B80:K82"/>
     <mergeCell ref="N80:N82"/>
     <mergeCell ref="P80:Q82"/>
-    <mergeCell ref="B83:K85"/>
-    <mergeCell ref="N83:N85"/>
-    <mergeCell ref="P83:Q85"/>
-    <mergeCell ref="B86:K88"/>
-    <mergeCell ref="N86:N88"/>
-    <mergeCell ref="P86:Q88"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="A59:N59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:K61"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:K64"/>
-    <mergeCell ref="N62:N64"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="P51:Q56"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="A45:M45"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:N49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="A35:N35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="A26:N26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <dataValidations count="1">

--- a/02.팀원관리/01.인사고과평가/2023 상반기 인사고과평가_개발사업부_개발2팀_한나결.xlsx
+++ b/02.팀원관리/01.인사고과평가/2023 상반기 인사고과평가_개발사업부_개발2팀_한나결.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="한상우" sheetId="1" r:id="rId1"/>
@@ -3843,8 +3843,8 @@
   </sheetPr>
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:J30"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N77" sqref="N77:N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4864,7 +4864,9 @@
       <c r="D51" s="67"/>
       <c r="E51" s="67"/>
       <c r="F51" s="67"/>
-      <c r="G51" s="126"/>
+      <c r="G51" s="126">
+        <v>0</v>
+      </c>
       <c r="H51" s="68"/>
       <c r="I51" s="129"/>
       <c r="J51" s="129"/>
@@ -5100,7 +5102,9 @@
       <c r="L62" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="M62" s="82"/>
+      <c r="M62" s="82">
+        <v>4</v>
+      </c>
       <c r="N62" s="125">
         <f>IF(ISERROR(AVERAGE(M63:M64)),0,ROUNDUP(AVERAGE(M63:M64), 1))</f>
         <v>0</v>
@@ -5173,7 +5177,9 @@
       <c r="L65" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="M65" s="82"/>
+      <c r="M65" s="82">
+        <v>4</v>
+      </c>
       <c r="N65" s="100">
         <f>IF(ISERROR(AVERAGE(M66:M67)),0,ROUNDUP(AVERAGE(M66:M67), 1))</f>
         <v>0</v>
@@ -5248,7 +5254,9 @@
       <c r="L68" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="M68" s="82"/>
+      <c r="M68" s="82">
+        <v>4</v>
+      </c>
       <c r="N68" s="100">
         <f>IF(ISERROR(AVERAGE(M69:M70)),0,ROUNDUP(AVERAGE(M69:M70), 1))</f>
         <v>0</v>
@@ -5321,7 +5329,9 @@
       <c r="L71" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="M71" s="82"/>
+      <c r="M71" s="82">
+        <v>3</v>
+      </c>
       <c r="N71" s="100">
         <f>IF(ISERROR(AVERAGE(M72:M73)),0,ROUNDUP(AVERAGE(M72:M73), 1))</f>
         <v>0</v>
@@ -5394,7 +5404,9 @@
       <c r="L74" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="M74" s="82"/>
+      <c r="M74" s="82">
+        <v>4</v>
+      </c>
       <c r="N74" s="100">
         <f>IF(ISERROR(AVERAGE(M75:M76)),0,ROUNDUP(AVERAGE(M75:M76), 1))</f>
         <v>0</v>
@@ -5469,7 +5481,9 @@
       <c r="L77" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="M77" s="49"/>
+      <c r="M77" s="49">
+        <v>3</v>
+      </c>
       <c r="N77" s="100">
         <f>IF(ISERROR(AVERAGE(M78:M79)),0,ROUNDUP(AVERAGE(M78:M79), 1))</f>
         <v>0</v>
@@ -5542,7 +5556,9 @@
       <c r="L80" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="M80" s="49"/>
+      <c r="M80" s="49">
+        <v>3</v>
+      </c>
       <c r="N80" s="100">
         <f>IF(ISERROR(AVERAGE(M81:M82)),0,ROUNDUP(AVERAGE(M81:M82), 1))</f>
         <v>0</v>
@@ -5615,7 +5631,9 @@
       <c r="L83" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="M83" s="49"/>
+      <c r="M83" s="49">
+        <v>4</v>
+      </c>
       <c r="N83" s="100">
         <f>IF(ISERROR(AVERAGE(M84:M85)),0,ROUNDUP(AVERAGE(M84:M85), 1))</f>
         <v>0</v>
@@ -5688,7 +5706,9 @@
       <c r="L86" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="M86" s="82"/>
+      <c r="M86" s="82">
+        <v>4</v>
+      </c>
       <c r="N86" s="100">
         <f>IF(ISERROR(AVERAGE(M87:M88)),0,ROUNDUP(AVERAGE(M87:M88), 1))</f>
         <v>0</v>
